--- a/docs/exercise/GradedExercise.xlsx
+++ b/docs/exercise/GradedExercise.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samto\Documents\Dropbox\01 FHNW\01 Unterricht\08 8. Semester, FS 17\02_4iCbb_webeC\vscode_workspace\bewertete-uebung-stokalakis\docs\exercise\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7380" yWindow="1780" windowWidth="18660" windowHeight="17660" tabRatio="500"/>
+    <workbookView xWindow="7380" yWindow="1776" windowWidth="18660" windowHeight="17664" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +17,7 @@
   <definedNames>
     <definedName name="TOTAL_POINTS">Sheet1!$I$32</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -160,7 +165,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -258,6 +263,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -586,22 +599,22 @@
   <dimension ref="B1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.83203125" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.33203125" customWidth="1"/>
+    <col min="1" max="1" width="5.796875" customWidth="1"/>
+    <col min="3" max="3" width="14.69921875" customWidth="1"/>
+    <col min="4" max="4" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="2:9">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>23</v>
       </c>
@@ -624,7 +637,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="2:9">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D4">
         <v>5</v>
       </c>
@@ -632,10 +645,10 @@
         <v>6</v>
       </c>
       <c r="G4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D5">
         <v>15</v>
       </c>
@@ -643,10 +656,10 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -655,14 +668,14 @@
       </c>
       <c r="G6" s="4">
         <f>SUM(G4:G5)</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H6" s="4">
         <f>MIN(C6,G6)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D8">
         <v>2</v>
       </c>
@@ -670,10 +683,10 @@
         <v>2</v>
       </c>
       <c r="G8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D9">
         <v>2</v>
       </c>
@@ -681,10 +694,10 @@
         <v>3</v>
       </c>
       <c r="G9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D10">
         <v>3</v>
       </c>
@@ -692,10 +705,10 @@
         <v>9</v>
       </c>
       <c r="G10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D11">
         <v>5</v>
       </c>
@@ -703,10 +716,10 @@
         <v>7</v>
       </c>
       <c r="G11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D12">
         <v>10</v>
       </c>
@@ -714,10 +727,10 @@
         <v>4</v>
       </c>
       <c r="G12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>1</v>
       </c>
@@ -726,18 +739,18 @@
       </c>
       <c r="G13" s="4">
         <f>SUM(G8:G12)</f>
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="H13" s="4">
         <f>MIN(C13,G13)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="2:9">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D15">
         <v>5</v>
       </c>
@@ -745,10 +758,10 @@
         <v>10</v>
       </c>
       <c r="G15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D16">
         <v>5</v>
       </c>
@@ -756,10 +769,10 @@
         <v>13</v>
       </c>
       <c r="G16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D17">
         <v>2</v>
       </c>
@@ -770,7 +783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:9">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D18">
         <v>2</v>
       </c>
@@ -778,10 +791,10 @@
         <v>11</v>
       </c>
       <c r="G18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D19">
         <v>2</v>
       </c>
@@ -789,10 +802,10 @@
         <v>14</v>
       </c>
       <c r="G19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D20">
         <v>2</v>
       </c>
@@ -803,7 +816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:9">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D21">
         <v>2</v>
       </c>
@@ -811,10 +824,10 @@
         <v>16</v>
       </c>
       <c r="G21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>8</v>
       </c>
@@ -823,14 +836,14 @@
       </c>
       <c r="G22" s="4">
         <f>SUM(G15:G21)</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H22" s="4">
         <f>MIN(C22,G22)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D24">
         <v>5</v>
       </c>
@@ -841,7 +854,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="2:9">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D25">
         <v>5</v>
       </c>
@@ -849,10 +862,10 @@
         <v>21</v>
       </c>
       <c r="G25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D26">
         <v>5</v>
       </c>
@@ -860,10 +873,10 @@
         <v>18</v>
       </c>
       <c r="G26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D27">
         <v>5</v>
       </c>
@@ -871,10 +884,10 @@
         <v>19</v>
       </c>
       <c r="G27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D28">
         <v>5</v>
       </c>
@@ -882,10 +895,10 @@
         <v>20</v>
       </c>
       <c r="G28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
         <v>17</v>
       </c>
@@ -894,14 +907,14 @@
       </c>
       <c r="G29" s="4">
         <f>SUM(G24:G28)</f>
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="H29" s="4">
         <f>MIN(C29,G29)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="2:9">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="3" t="s">
         <v>25</v>
       </c>
@@ -910,14 +923,14 @@
       </c>
       <c r="H32">
         <f>SUM(H4:H29)</f>
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="I32">
         <f>MIN(C32,H32)</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="5" t="s">
         <v>30</v>
       </c>
@@ -929,7 +942,7 @@
       <c r="H34" s="5"/>
       <c r="I34" s="6">
         <f>1 + TOTAL_POINTS/10</f>
-        <v>6</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
   </sheetData>

--- a/docs/exercise/GradedExercise.xlsx
+++ b/docs/exercise/GradedExercise.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samto\Documents\Dropbox\01 FHNW\01 Unterricht\08 8. Semester, FS 17\02_4iCbb_webeC\vscode_workspace\bewertete-uebung-stokalakis\docs\exercise\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\01_FHNW\01_Unterricht\08_8_Semester_FS17\02_4iCbb_webeC\vscode_workspace\bewertete-uebung-stokalakis\docs\exercise\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7380" yWindow="1776" windowWidth="18660" windowHeight="17664" tabRatio="500"/>
+    <workbookView xWindow="7380" yWindow="1770" windowWidth="18660" windowHeight="17670" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -599,22 +599,22 @@
   <dimension ref="B1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.796875" customWidth="1"/>
-    <col min="3" max="3" width="14.69921875" customWidth="1"/>
-    <col min="4" max="4" width="11.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.296875" customWidth="1"/>
+    <col min="1" max="1" width="5.75" customWidth="1"/>
+    <col min="3" max="3" width="14.75" customWidth="1"/>
+    <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>23</v>
       </c>
@@ -637,7 +637,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D4">
         <v>5</v>
       </c>
@@ -645,10 +645,10 @@
         <v>6</v>
       </c>
       <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D5">
         <v>15</v>
       </c>
@@ -656,10 +656,10 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -668,14 +668,14 @@
       </c>
       <c r="G6" s="4">
         <f>SUM(G4:G5)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H6" s="4">
         <f>MIN(C6,G6)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D8">
         <v>2</v>
       </c>
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D9">
         <v>2</v>
       </c>
@@ -697,7 +697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D10">
         <v>3</v>
       </c>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D11">
         <v>5</v>
       </c>
@@ -716,10 +716,10 @@
         <v>7</v>
       </c>
       <c r="G11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D12">
         <v>10</v>
       </c>
@@ -727,10 +727,10 @@
         <v>4</v>
       </c>
       <c r="G12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>1</v>
       </c>
@@ -739,18 +739,18 @@
       </c>
       <c r="G13" s="4">
         <f>SUM(G8:G12)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H13" s="4">
         <f>MIN(C13,G13)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D15">
         <v>5</v>
       </c>
@@ -761,7 +761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D16">
         <v>5</v>
       </c>
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D17">
         <v>2</v>
       </c>
@@ -783,7 +783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D18">
         <v>2</v>
       </c>
@@ -791,10 +791,10 @@
         <v>11</v>
       </c>
       <c r="G18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D19">
         <v>2</v>
       </c>
@@ -802,10 +802,10 @@
         <v>14</v>
       </c>
       <c r="G19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D20">
         <v>2</v>
       </c>
@@ -816,7 +816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D21">
         <v>2</v>
       </c>
@@ -824,10 +824,10 @@
         <v>16</v>
       </c>
       <c r="G21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>8</v>
       </c>
@@ -836,14 +836,14 @@
       </c>
       <c r="G22" s="4">
         <f>SUM(G15:G21)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H22" s="4">
         <f>MIN(C22,G22)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D24">
         <v>5</v>
       </c>
@@ -854,7 +854,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D25">
         <v>5</v>
       </c>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D26">
         <v>5</v>
       </c>
@@ -876,7 +876,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D27">
         <v>5</v>
       </c>
@@ -887,7 +887,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D28">
         <v>5</v>
       </c>
@@ -898,7 +898,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>17</v>
       </c>
@@ -914,7 +914,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
         <v>25</v>
       </c>
@@ -923,14 +923,14 @@
       </c>
       <c r="H32">
         <f>SUM(H4:H29)</f>
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="I32">
         <f>MIN(C32,H32)</f>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>30</v>
       </c>
@@ -942,7 +942,7 @@
       <c r="H34" s="5"/>
       <c r="I34" s="6">
         <f>1 + TOTAL_POINTS/10</f>
-        <v>4.4000000000000004</v>
+        <v>5.3</v>
       </c>
     </row>
   </sheetData>

--- a/docs/exercise/GradedExercise.xlsx
+++ b/docs/exercise/GradedExercise.xlsx
@@ -26,6 +26,64 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Samuel Tokalakis</author>
+  </authors>
+  <commentList>
+    <comment ref="G2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Samuel Tokalakis:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Points added are for myself, to estimate my grade. Just overwrite it.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B29" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Samuel Tokalakis:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+It's a pity that there is a max of 5 here :)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
@@ -169,7 +227,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -200,6 +258,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -595,11 +666,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -645,7 +716,7 @@
         <v>6</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
@@ -656,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
@@ -668,11 +739,11 @@
       </c>
       <c r="G6" s="4">
         <f>SUM(G4:G5)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H6" s="4">
         <f>MIN(C6,G6)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
@@ -923,11 +994,11 @@
       </c>
       <c r="H32">
         <f>SUM(H4:H29)</f>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I32">
         <f>MIN(C32,H32)</f>
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
@@ -942,11 +1013,12 @@
       <c r="H34" s="5"/>
       <c r="I34" s="6">
         <f>1 + TOTAL_POINTS/10</f>
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/docs/exercise/GradedExercise.xlsx
+++ b/docs/exercise/GradedExercise.xlsx
@@ -32,30 +32,6 @@
     <author>Samuel Tokalakis</author>
   </authors>
   <commentList>
-    <comment ref="G2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Samuel Tokalakis:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Points added are for myself, to estimate my grade. Just overwrite it.</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="B29" authorId="0" shapeId="0">
       <text>
         <r>
@@ -670,7 +646,7 @@
   <dimension ref="B1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -715,9 +691,6 @@
       <c r="E4" t="s">
         <v>6</v>
       </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D5">
@@ -726,9 +699,6 @@
       <c r="E5" t="s">
         <v>0</v>
       </c>
-      <c r="G5">
-        <v>13</v>
-      </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
@@ -739,11 +709,11 @@
       </c>
       <c r="G6" s="4">
         <f>SUM(G4:G5)</f>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H6" s="4">
         <f>MIN(C6,G6)</f>
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
@@ -753,9 +723,6 @@
       <c r="E8" t="s">
         <v>2</v>
       </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D9">
@@ -764,9 +731,6 @@
       <c r="E9" t="s">
         <v>3</v>
       </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D10">
@@ -775,9 +739,6 @@
       <c r="E10" t="s">
         <v>9</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D11">
@@ -785,9 +746,6 @@
       </c>
       <c r="E11" t="s">
         <v>7</v>
-      </c>
-      <c r="G11">
-        <v>3</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
@@ -797,9 +755,6 @@
       <c r="E12" t="s">
         <v>4</v>
       </c>
-      <c r="G12">
-        <v>6</v>
-      </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
@@ -810,11 +765,11 @@
       </c>
       <c r="G13" s="4">
         <f>SUM(G8:G12)</f>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H13" s="4">
         <f>MIN(C13,G13)</f>
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
@@ -828,9 +783,6 @@
       <c r="E15" t="s">
         <v>10</v>
       </c>
-      <c r="G15">
-        <v>4</v>
-      </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D16">
@@ -838,9 +790,6 @@
       </c>
       <c r="E16" t="s">
         <v>13</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
@@ -850,9 +799,6 @@
       <c r="E17" t="s">
         <v>12</v>
       </c>
-      <c r="G17">
-        <v>2</v>
-      </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D18">
@@ -861,9 +807,6 @@
       <c r="E18" t="s">
         <v>11</v>
       </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D19">
@@ -872,9 +815,6 @@
       <c r="E19" t="s">
         <v>14</v>
       </c>
-      <c r="G19">
-        <v>2</v>
-      </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D20">
@@ -883,9 +823,6 @@
       <c r="E20" t="s">
         <v>15</v>
       </c>
-      <c r="G20">
-        <v>2</v>
-      </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D21">
@@ -894,9 +831,6 @@
       <c r="E21" t="s">
         <v>16</v>
       </c>
-      <c r="G21">
-        <v>2</v>
-      </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
@@ -907,11 +841,11 @@
       </c>
       <c r="G22" s="4">
         <f>SUM(G15:G21)</f>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H22" s="4">
         <f>MIN(C22,G22)</f>
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
@@ -921,9 +855,6 @@
       <c r="E24" t="s">
         <v>22</v>
       </c>
-      <c r="G24">
-        <v>5</v>
-      </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D25">
@@ -932,9 +863,6 @@
       <c r="E25" t="s">
         <v>21</v>
       </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D26">
@@ -943,9 +871,6 @@
       <c r="E26" t="s">
         <v>18</v>
       </c>
-      <c r="G26">
-        <v>3</v>
-      </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D27">
@@ -954,9 +879,6 @@
       <c r="E27" t="s">
         <v>19</v>
       </c>
-      <c r="G27">
-        <v>3</v>
-      </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D28">
@@ -964,9 +886,6 @@
       </c>
       <c r="E28" t="s">
         <v>20</v>
-      </c>
-      <c r="G28">
-        <v>3</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
@@ -978,11 +897,11 @@
       </c>
       <c r="G29" s="4">
         <f>SUM(G24:G28)</f>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H29" s="4">
         <f>MIN(C29,G29)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
@@ -994,11 +913,11 @@
       </c>
       <c r="H32">
         <f>SUM(H4:H29)</f>
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="I32">
         <f>MIN(C32,H32)</f>
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
@@ -1013,7 +932,7 @@
       <c r="H34" s="5"/>
       <c r="I34" s="6">
         <f>1 + TOTAL_POINTS/10</f>
-        <v>5.5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/docs/exercise/GradedExercise.xlsx
+++ b/docs/exercise/GradedExercise.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\01_FHNW\01_Unterricht\08_8_Semester_FS17\02_4iCbb_webeC\vscode_workspace\bewertete-uebung-stokalakis\docs\exercise\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7380" yWindow="1770" windowWidth="18660" windowHeight="17670" tabRatio="500"/>
+    <workbookView xWindow="560" yWindow="0" windowWidth="14220" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +12,7 @@
   <definedNames>
     <definedName name="TOTAL_POINTS">Sheet1!$I$32</definedName>
   </definedNames>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -32,7 +27,7 @@
     <author>Samuel Tokalakis</author>
   </authors>
   <commentList>
-    <comment ref="B29" authorId="0" shapeId="0">
+    <comment ref="B29" authorId="0">
       <text>
         <r>
           <rPr>
@@ -158,6 +153,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> per Criteria</t>
@@ -181,6 +177,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> per Unit</t>
@@ -199,7 +196,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -209,6 +206,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -646,22 +644,22 @@
   <dimension ref="B1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="5.75" customWidth="1"/>
-    <col min="3" max="3" width="14.75" customWidth="1"/>
-    <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.25" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9">
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9">
       <c r="B2" t="s">
         <v>23</v>
       </c>
@@ -684,23 +682,29 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9">
       <c r="D4">
         <v>5</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
       <c r="D5">
         <v>15</v>
       </c>
       <c r="E5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -709,54 +713,69 @@
       </c>
       <c r="G6" s="4">
         <f>SUM(G4:G5)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H6" s="4">
         <f>MIN(C6,G6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
       <c r="D8">
         <v>2</v>
       </c>
       <c r="E8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
       <c r="D9">
         <v>2</v>
       </c>
       <c r="E9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
       <c r="D10">
         <v>3</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
       <c r="D11">
         <v>5</v>
       </c>
       <c r="E11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
       <c r="D12">
         <v>10</v>
       </c>
       <c r="E12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
       <c r="B13" s="1" t="s">
         <v>1</v>
       </c>
@@ -765,74 +784,95 @@
       </c>
       <c r="G13" s="4">
         <f>SUM(G8:G12)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="H13" s="4">
         <f>MIN(C13,G13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9">
       <c r="D15">
         <v>5</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
       <c r="D16">
         <v>5</v>
       </c>
       <c r="E16" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
       <c r="D17">
         <v>2</v>
       </c>
       <c r="E17" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
       <c r="D18">
         <v>2</v>
       </c>
       <c r="E18" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
       <c r="D19">
         <v>2</v>
       </c>
       <c r="E19" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
       <c r="D20">
         <v>2</v>
       </c>
       <c r="E20" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
       <c r="D21">
         <v>2</v>
       </c>
       <c r="E21" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
       <c r="B22" s="1" t="s">
         <v>8</v>
       </c>
@@ -841,22 +881,25 @@
       </c>
       <c r="G22" s="4">
         <f>SUM(G15:G21)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H22" s="4">
         <f>MIN(C22,G22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
       <c r="D24">
         <v>5</v>
       </c>
       <c r="E24" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
       <c r="D25">
         <v>5</v>
       </c>
@@ -864,31 +907,40 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9">
       <c r="D26">
         <v>5</v>
       </c>
       <c r="E26" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9">
       <c r="D27">
         <v>5</v>
       </c>
       <c r="E27" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
       <c r="D28">
         <v>5</v>
       </c>
       <c r="E28" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9">
       <c r="B29" s="1" t="s">
         <v>17</v>
       </c>
@@ -897,14 +949,14 @@
       </c>
       <c r="G29" s="4">
         <f>SUM(G24:G28)</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H29" s="4">
         <f>MIN(C29,G29)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
       <c r="B32" s="3" t="s">
         <v>25</v>
       </c>
@@ -913,14 +965,14 @@
       </c>
       <c r="H32">
         <f>SUM(H4:H29)</f>
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="I32">
         <f>MIN(C32,H32)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9">
       <c r="B34" s="5" t="s">
         <v>30</v>
       </c>
@@ -932,7 +984,7 @@
       <c r="H34" s="5"/>
       <c r="I34" s="6">
         <f>1 + TOTAL_POINTS/10</f>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
